--- a/doc/平台版本规划.xlsx
+++ b/doc/平台版本规划.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="7830" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="业务" sheetId="1" r:id="rId1"/>
     <sheet name="平台" sheetId="2" r:id="rId2"/>
     <sheet name="5月报" sheetId="3" r:id="rId3"/>
+    <sheet name="BUG LIST" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>序号</t>
   </si>
@@ -340,6 +341,15 @@
   </si>
   <si>
     <t>1. 订单爆发预计在6月可能中旬，需要赶在此时间点前做好提取和计费，时间较紧</t>
+  </si>
+  <si>
+    <t>游戏账号中添加游戏容易点错</t>
+  </si>
+  <si>
+    <t>订单项里面显示游戏和账号，而不是账号ID</t>
+  </si>
+  <si>
+    <t>UCR订单账号按照起租时间排序</t>
   </si>
 </sst>
 </file>
@@ -347,10 +357,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -395,6 +405,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -402,14 +427,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,8 +464,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,62 +527,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,21 +547,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -583,187 +593,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,6 +1033,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF8064A2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,30 +1111,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1132,149 +1142,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1323,9 +1333,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1336,15 +1343,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1365,39 +1363,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,9 +1389,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1850,234 +1830,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="67">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="69"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="67">
+      <c r="A3" s="57">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="67">
+      <c r="A4" s="57">
         <v>3</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="67">
+      <c r="A5" s="57">
         <v>4</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="67">
+      <c r="A6" s="57">
         <v>5</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="59"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="67">
+      <c r="A7" s="57">
         <v>6</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="69"/>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="67">
+      <c r="A8" s="57">
         <v>7</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="67">
+      <c r="A9" s="57">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="69"/>
+      <c r="D9" s="59"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="67">
+      <c r="A10" s="57">
         <v>9</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="69"/>
+      <c r="D10" s="59"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="67">
+      <c r="A11" s="57">
         <v>10</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="69"/>
+      <c r="D11" s="59"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="67">
+      <c r="A12" s="57">
         <v>11</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="69"/>
+      <c r="D12" s="59"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="67">
+      <c r="A13" s="57">
         <v>12</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="69"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="67">
+      <c r="A14" s="57">
         <v>13</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="69"/>
+      <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="67">
+      <c r="A15" s="57">
         <v>14</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="69"/>
+      <c r="D15" s="59"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="67">
+      <c r="A16" s="57">
         <v>15</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="69"/>
+      <c r="D16" s="59"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="67">
+      <c r="A17" s="57">
         <v>16</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="59"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="67">
+      <c r="A18" s="57">
         <v>17</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="69"/>
+      <c r="D18" s="59"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="67">
+      <c r="A19" s="57">
         <v>18</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="69"/>
+      <c r="D19" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2097,177 +2077,177 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="63" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="53" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="7" style="63" customWidth="1"/>
+    <col min="4" max="4" width="7" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="56" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:4">
-      <c r="A2" s="67">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="60" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:4">
-      <c r="A3" s="67">
+      <c r="A3" s="57">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="60" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="67">
+      <c r="A4" s="57">
         <v>3</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="60" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="67">
+      <c r="A5" s="57">
         <v>4</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="60" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
-      <c r="A6" s="67">
+      <c r="A6" s="57">
         <v>5</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="60" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:4">
-      <c r="A7" s="67">
+      <c r="A7" s="57">
         <v>6</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:4">
-      <c r="A8" s="67">
+      <c r="A8" s="57">
         <v>7</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:4">
-      <c r="A9" s="67">
+      <c r="A9" s="57">
         <v>8</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:4">
-      <c r="A10" s="67">
+      <c r="A10" s="57">
         <v>9</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="67">
+      <c r="A11" s="57">
         <v>10</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="67">
+      <c r="A12" s="57">
         <v>11</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="60" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2288,7 +2268,7 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
@@ -2298,7 +2278,7 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="13.5" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -2309,9 +2289,9 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2320,9 +2300,9 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="48"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" ht="13.5" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
@@ -2335,9 +2315,9 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="49"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" ht="13.5" spans="1:9">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2346,9 +2326,9 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" ht="13.5" spans="1:9">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2357,9 +2337,9 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="50"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2368,9 +2348,9 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" ht="15" spans="1:9">
       <c r="A7" s="14" t="s">
         <v>56</v>
       </c>
@@ -2380,335 +2360,335 @@
       <c r="C7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="18" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" ht="13.5" spans="1:9">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="18" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="53"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:9">
-      <c r="A10" s="17"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="53"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="17"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="53"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" ht="13.5" spans="1:9">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="25" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="53"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="53"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="54"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" ht="13.5" spans="1:9">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" ht="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="29" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="32" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="56"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="10"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="32" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="56"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10"/>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="32" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="56"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="10"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="32" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="56"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10"/>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="32" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="56"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10"/>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="32" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="56"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="32" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="56"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" ht="17.25" spans="1:9">
       <c r="A23" s="12"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="35" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" ht="13.5" spans="1:9">
       <c r="A24" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="58"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="17"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="59"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="60"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="43" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" ht="13.5" spans="1:9">
+      <c r="A25" s="16"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:9">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="50"/>
+    </row>
+    <row r="27" ht="13.5" spans="1:9">
+      <c r="A27" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="61"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="51"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:9">
       <c r="A28" s="12"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="62"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -2758,4 +2738,36 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>